--- a/patch-doc-oitype/ig/StructureDefinition-ror-task.xlsx
+++ b/patch-doc-oitype/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:22:49+00:00</t>
+    <t>2024-09-18T15:04:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
